--- a/TXN.xlsx
+++ b/TXN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661F8E84-8E80-4926-9169-5D015D4371C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEE8F4B-332F-4A03-9175-DC07F0480321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{D684B2EE-C23E-4986-9C86-533D2C7C4690}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{D684B2EE-C23E-4986-9C86-533D2C7C4690}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Texas Industrires</t>
   </si>
@@ -158,6 +158,18 @@
   <si>
     <t>Tax Rate</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
 </sst>
 </file>
 
@@ -167,13 +179,19 @@
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -230,21 +248,25 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -584,7 +606,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -608,7 +630,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="2">
-        <v>190.61</v>
+        <v>182.49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -619,10 +641,10 @@
         <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>912.21661400000005</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>16</v>
+        <v>909.13716899999997</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -634,7 +656,7 @@
       </c>
       <c r="G5" s="4">
         <f>G3*G4</f>
-        <v>173877.60879454002</v>
+        <v>165908.44197081</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -642,11 +664,11 @@
         <v>7</v>
       </c>
       <c r="G6" s="4">
-        <f>2589+6163</f>
-        <v>8752</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>16</v>
+        <f>3044+2315</f>
+        <v>5359</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -654,11 +676,10 @@
         <v>8</v>
       </c>
       <c r="G7" s="4">
-        <f>12844+1049</f>
-        <v>13893</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>16</v>
+        <v>14043</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -667,7 +688,7 @@
       </c>
       <c r="G8" s="4">
         <f>G5-G6+G7</f>
-        <v>179018.60879454002</v>
+        <v>174592.44197081</v>
       </c>
     </row>
   </sheetData>
@@ -680,13 +701,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A237762-C97B-43E8-9854-93BDCE073177}">
-  <dimension ref="A1:Y614"/>
+  <dimension ref="A1:Y613"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -726,87 +747,176 @@
       <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="K2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="4">
+        <v>3278</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3353</v>
+      </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="G3" s="4">
+        <v>2836</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2928</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3223</v>
+      </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="4">
+        <v>3219</v>
+      </c>
+      <c r="L3" s="4">
+        <v>3452</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4">
-        <v>3278</v>
+        <v>894</v>
       </c>
       <c r="E4" s="4">
-        <v>3353</v>
+        <v>890</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <v>652</v>
+      </c>
       <c r="H4" s="4">
-        <v>2928</v>
+        <v>615</v>
       </c>
       <c r="I4" s="4">
-        <v>3223</v>
+        <v>653</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4">
+        <v>647</v>
+      </c>
+      <c r="L4" s="4">
+        <v>679</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4">
-        <v>894</v>
+        <v>359</v>
       </c>
       <c r="E5" s="4">
-        <v>890</v>
+        <v>289</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4">
+        <v>173</v>
+      </c>
       <c r="H5" s="4">
-        <v>615</v>
+        <v>279</v>
       </c>
       <c r="I5" s="4">
-        <v>653</v>
+        <v>275</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4">
+        <v>212</v>
+      </c>
+      <c r="L5" s="4">
+        <v>317</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
-        <v>359</v>
-      </c>
-      <c r="E6" s="4">
-        <v>289</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
-        <v>279</v>
-      </c>
-      <c r="I6" s="4">
-        <v>275</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
+        <v>4531</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4532</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
+        <v>3661</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3822</v>
+      </c>
+      <c r="I6" s="6">
+        <v>4151</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6">
+        <v>4069</v>
+      </c>
+      <c r="L6" s="6">
+        <v>4448</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -819,27 +929,33 @@
       <c r="Y6" s="4"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6">
-        <v>4531</v>
-      </c>
-      <c r="E7" s="6">
-        <v>4532</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6">
-        <v>3822</v>
-      </c>
-      <c r="I7" s="6">
-        <v>4151</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>1621</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1717</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>1566</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1611</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1677</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
+        <v>1756</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1873</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -856,28 +972,56 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8:H8" si="0">C6-C7</f>
+        <v>0</v>
+      </c>
       <c r="D8" s="4">
-        <v>1621</v>
+        <f t="shared" si="0"/>
+        <v>2910</v>
       </c>
       <c r="E8" s="4">
-        <v>1717</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+        <f t="shared" si="0"/>
+        <v>2815</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>2095</v>
+      </c>
       <c r="H8" s="4">
-        <v>1611</v>
+        <f t="shared" si="0"/>
+        <v>2211</v>
       </c>
       <c r="I8" s="4">
-        <v>1677</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+        <f>I6-I7</f>
+        <v>2474</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" ref="J8:N8" si="1">J6-J7</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>2313</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="1"/>
+        <v>2575</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -892,42 +1036,32 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" ref="C9:H9" si="0">C7-C8</f>
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>2910</v>
+        <v>477</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>2815</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="0"/>
-        <v>2211</v>
+        <v>498</v>
       </c>
       <c r="I9" s="4">
-        <f>I7-I8</f>
-        <v>2474</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" ref="J9" si="1">J7-J8</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+        <v>492</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
+        <v>517</v>
+      </c>
+      <c r="L9" s="4">
+        <v>527</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -944,26 +1078,32 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="E10" s="4">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4">
+        <v>455</v>
+      </c>
       <c r="H10" s="4">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="I10" s="4">
-        <v>492</v>
+        <v>428</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="K10" s="4">
+        <v>472</v>
+      </c>
+      <c r="L10" s="4">
+        <v>485</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -980,26 +1120,32 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4">
-        <v>452</v>
+        <v>0</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4">
+        <v>-124</v>
+      </c>
       <c r="H11" s="4">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="I11" s="4">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1016,28 +1162,56 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12:H12" si="2">C8-SUM(C9:C11)</f>
+        <v>0</v>
+      </c>
       <c r="D12" s="4">
+        <f t="shared" si="2"/>
+        <v>1972</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="2"/>
+        <v>1892</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E12" s="4">
+      <c r="G12" s="4">
+        <f t="shared" si="2"/>
+        <v>1286</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="2"/>
+        <v>1248</v>
+      </c>
+      <c r="I12" s="4">
+        <f>I8-SUM(I9:I11)</f>
+        <v>1554</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" ref="J12:N12" si="3">J8-SUM(J9:J11)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4">
+      <c r="K12" s="4">
+        <f t="shared" si="3"/>
+        <v>1324</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="3"/>
+        <v>1563</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I12" s="4">
+      <c r="N12" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1052,42 +1226,32 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" ref="C13:H13" si="2">C9-SUM(C10:C12)</f>
-        <v>0</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="4">
-        <f t="shared" si="2"/>
-        <v>1972</v>
+        <v>119</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="2"/>
-        <v>1892</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="2"/>
-        <v>1248</v>
+        <v>130</v>
       </c>
       <c r="I13" s="4">
-        <f>I9-SUM(I10:I12)</f>
-        <v>1554</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" ref="J13" si="3">J9-SUM(J10:J12)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
+        <v>80</v>
+      </c>
+      <c r="L13" s="4">
+        <v>48</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1104,26 +1268,32 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="E14" s="4">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4">
+        <v>116</v>
+      </c>
       <c r="H14" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I14" s="4">
         <v>131</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="K14" s="4">
+        <v>128</v>
+      </c>
+      <c r="L14" s="4">
+        <v>133</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1140,28 +1310,56 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:H15" si="4">C12+C13-C14</f>
+        <v>0</v>
+      </c>
       <c r="D15" s="4">
-        <v>89</v>
+        <f t="shared" si="4"/>
+        <v>2002</v>
       </c>
       <c r="E15" s="4">
-        <v>98</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+        <f t="shared" si="4"/>
+        <v>1922</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="4"/>
+        <v>1293</v>
+      </c>
       <c r="H15" s="4">
-        <v>131</v>
+        <f t="shared" si="4"/>
+        <v>1247</v>
       </c>
       <c r="I15" s="4">
-        <v>131</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+        <f>I12+I13-I14</f>
+        <v>1554</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" ref="J15:N15" si="5">J12+J13-J14</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="5"/>
+        <v>1276</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="5"/>
+        <v>1478</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -1176,42 +1374,32 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" ref="C16:H16" si="4">C13+C14-C15</f>
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="4">
-        <f t="shared" si="4"/>
-        <v>2002</v>
+        <v>280</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="4"/>
-        <v>1922</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="4"/>
-        <v>1247</v>
+        <v>120</v>
       </c>
       <c r="I16" s="4">
-        <f>I13+I14-I15</f>
-        <v>1554</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" ref="J16" si="5">J13+J14-J15</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+        <v>192</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
+        <v>97</v>
+      </c>
+      <c r="L16" s="4">
+        <v>183</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1228,28 +1416,56 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17:H17" si="6">C15-C16</f>
+        <v>0</v>
+      </c>
       <c r="D17" s="4">
-        <v>280</v>
+        <f t="shared" si="6"/>
+        <v>1722</v>
       </c>
       <c r="E17" s="4">
-        <v>213</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+        <f t="shared" si="6"/>
+        <v>1709</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="6"/>
+        <v>1105</v>
+      </c>
       <c r="H17" s="4">
-        <v>120</v>
+        <f t="shared" si="6"/>
+        <v>1127</v>
       </c>
       <c r="I17" s="4">
-        <v>192</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+        <f>I15-I16</f>
+        <v>1362</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" ref="J17:N17" si="7">J15-J16</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="7"/>
+        <v>1179</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="7"/>
+        <v>1295</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -1263,41 +1479,14 @@
       <c r="Y17" s="4"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" ref="C18:H18" si="6">C16-C17</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="6"/>
-        <v>1722</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="6"/>
-        <v>1709</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="6"/>
-        <v>1127</v>
-      </c>
-      <c r="I18" s="4">
-        <f>I16-I17</f>
-        <v>1362</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" ref="J18" si="7">J16-J17</f>
-        <v>0</v>
-      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -1315,18 +1504,57 @@
       <c r="Y18" s="4"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="7" t="e">
+        <f t="shared" ref="C19" si="8">C17/C20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="7">
+        <f>D17/D20</f>
+        <v>1.8964757709251101</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" ref="E19:N19" si="9">E17/E20</f>
+        <v>1.88215859030837</v>
+      </c>
+      <c r="F19" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="9"/>
+        <v>1.2142857142857142</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="9"/>
+        <v>1.2357456140350878</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="9"/>
+        <v>1.4917853231106244</v>
+      </c>
+      <c r="J19" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="9"/>
+        <v>1.2956043956043957</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="9"/>
+        <v>1.4262114537444934</v>
+      </c>
+      <c r="M19" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -1341,42 +1569,32 @@
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="7" t="e">
-        <f t="shared" ref="C20" si="8">C18/C21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="7">
-        <f>D18/D21</f>
-        <v>1.8964757709251101</v>
-      </c>
-      <c r="E20" s="7">
-        <f t="shared" ref="E20:J20" si="9">E18/E21</f>
-        <v>1.88215859030837</v>
-      </c>
-      <c r="F20" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" si="9"/>
-        <v>1.2357456140350878</v>
-      </c>
-      <c r="I20" s="7">
-        <f t="shared" si="9"/>
-        <v>1.4917853231106244</v>
-      </c>
-      <c r="J20" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
+        <v>908</v>
+      </c>
+      <c r="E20" s="4">
+        <v>908</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
+        <v>910</v>
+      </c>
+      <c r="H20" s="4">
+        <v>912</v>
+      </c>
+      <c r="I20" s="4">
+        <v>913</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4">
+        <v>910</v>
+      </c>
+      <c r="L20" s="4">
+        <v>908</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1392,24 +1610,13 @@
       <c r="Y20" s="4"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4">
-        <v>908</v>
-      </c>
-      <c r="E21" s="4">
-        <v>908</v>
-      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4">
-        <v>912</v>
-      </c>
-      <c r="I21" s="4">
-        <v>913</v>
-      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -1428,18 +1635,45 @@
       <c r="Y21" s="4"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+      <c r="G22" s="8" t="e">
+        <f>G3/C3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="8">
+        <f>H3/D3-1</f>
+        <v>-0.10677242220866379</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" ref="I22:J22" si="10">I3/E3-1</f>
+        <v>-3.8771249627199578E-2</v>
+      </c>
+      <c r="J22" s="8" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" ref="K22:K23" si="11">K3/G3-1</f>
+        <v>0.13504936530324407</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" ref="L22:L23" si="12">L3/H3-1</f>
+        <v>0.1789617486338797</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" ref="M22:M23" si="13">M3/I3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="N22" s="8" t="e">
+        <f t="shared" ref="N22:N23" si="14">N3/J3-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -1454,7 +1688,7 @@
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1466,20 +1700,32 @@
       </c>
       <c r="H23" s="8">
         <f>H4/D4-1</f>
-        <v>-0.10677242220866379</v>
+        <v>-0.31208053691275173</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" ref="I23:J23" si="10">I4/E4-1</f>
-        <v>-3.8771249627199578E-2</v>
+        <f t="shared" ref="I23:J23" si="15">I4/E4-1</f>
+        <v>-0.26629213483146064</v>
       </c>
       <c r="J23" s="8" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
+      <c r="K23" s="8">
+        <f t="shared" si="11"/>
+        <v>-7.6687116564416735E-3</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="12"/>
+        <v>0.10406504065040645</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="N23" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -1493,33 +1739,45 @@
       <c r="Y23" s="4"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="8" t="e">
-        <f>G5/C5-1</f>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="10" t="e">
+        <f>G6/C6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="8">
-        <f>H5/D5-1</f>
-        <v>-0.31208053691275173</v>
-      </c>
-      <c r="I24" s="8">
-        <f t="shared" ref="I24:J24" si="11">I5/E5-1</f>
-        <v>-0.26629213483146064</v>
-      </c>
-      <c r="J24" s="8" t="e">
-        <f t="shared" si="11"/>
+      <c r="H24" s="10">
+        <f>H6/D6-1</f>
+        <v>-0.15647759876406975</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" ref="I24:J24" si="16">I6/E6-1</f>
+        <v>-8.4068843777581614E-2</v>
+      </c>
+      <c r="J24" s="10" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="K24" s="10">
+        <f t="shared" ref="K24" si="17">K6/G6-1</f>
+        <v>0.11144496039333518</v>
+      </c>
+      <c r="L24" s="10">
+        <f t="shared" ref="L24" si="18">L6/H6-1</f>
+        <v>0.16378859236002086</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" ref="M24" si="19">M6/I6-1</f>
+        <v>-1</v>
+      </c>
+      <c r="N24" s="10" t="e">
+        <f t="shared" ref="N24" si="20">N6/J6-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -1534,32 +1792,56 @@
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="8" t="e">
-        <f>G7/C7-1</f>
+        <v>37</v>
+      </c>
+      <c r="C25" s="8" t="e">
+        <f t="shared" ref="C25:G25" si="21">C8/C6</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="D25" s="8">
+        <f t="shared" si="21"/>
+        <v>0.64224233061134406</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="21"/>
+        <v>0.62113857016769636</v>
+      </c>
+      <c r="F25" s="8" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="21"/>
+        <v>0.57224801966675776</v>
+      </c>
       <c r="H25" s="8">
-        <f>H7/D7-1</f>
-        <v>-0.15647759876406975</v>
+        <f>H8/H6</f>
+        <v>0.57849293563579274</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" ref="I25:J25" si="12">I7/E7-1</f>
-        <v>-8.4068843777581614E-2</v>
+        <f t="shared" ref="I25:J25" si="22">I8/I6</f>
+        <v>0.5960009636232233</v>
       </c>
       <c r="J25" s="8" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="K25" s="8">
+        <f t="shared" ref="K25:N25" si="23">K8/K6</f>
+        <v>0.56844433521749815</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="23"/>
+        <v>0.57891187050359716</v>
+      </c>
+      <c r="M25" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -1574,44 +1856,56 @@
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="8" t="e">
-        <f t="shared" ref="C26:G26" si="13">C9/C7</f>
+        <f t="shared" ref="C26:G26" si="24">C12/C6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="13"/>
-        <v>0.64224233061134406</v>
+        <f t="shared" si="24"/>
+        <v>0.43522401235930258</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" si="13"/>
-        <v>0.62113857016769636</v>
+        <f t="shared" si="24"/>
+        <v>0.41747572815533979</v>
       </c>
       <c r="F26" s="8" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="8" t="e">
-        <f t="shared" si="13"/>
+      <c r="G26" s="8">
+        <f t="shared" si="24"/>
+        <v>0.35127014476918872</v>
+      </c>
+      <c r="H26" s="8">
+        <f>H12/H6</f>
+        <v>0.32653061224489793</v>
+      </c>
+      <c r="I26" s="8">
+        <f t="shared" ref="I26:J26" si="25">I12/I6</f>
+        <v>0.37436762225969644</v>
+      </c>
+      <c r="J26" s="8" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="8">
-        <f>H9/H7</f>
-        <v>0.57849293563579274</v>
-      </c>
-      <c r="I26" s="8">
-        <f t="shared" ref="I26:J26" si="14">I9/I7</f>
-        <v>0.5960009636232233</v>
-      </c>
-      <c r="J26" s="8" t="e">
-        <f t="shared" si="14"/>
+      <c r="K26" s="8">
+        <f t="shared" ref="K26:N26" si="26">K12/K6</f>
+        <v>0.32538707299090686</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="26"/>
+        <v>0.35139388489208634</v>
+      </c>
+      <c r="M26" s="8" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="N26" s="8" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -1626,44 +1920,56 @@
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="8" t="e">
-        <f t="shared" ref="C27:G27" si="15">C13/C7</f>
+        <f t="shared" ref="C27:G27" si="27">C16/C15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="15"/>
-        <v>0.43522401235930258</v>
+        <f t="shared" si="27"/>
+        <v>0.13986013986013987</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="15"/>
-        <v>0.41747572815533979</v>
+        <f t="shared" si="27"/>
+        <v>0.11082206035379813</v>
       </c>
       <c r="F27" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="8" t="e">
-        <f t="shared" si="15"/>
+      <c r="G27" s="8">
+        <f t="shared" si="27"/>
+        <v>0.14539829853054911</v>
+      </c>
+      <c r="H27" s="8">
+        <f>H16/H15</f>
+        <v>9.6230954290296711E-2</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" ref="I27:J27" si="28">I16/I15</f>
+        <v>0.12355212355212356</v>
+      </c>
+      <c r="J27" s="8" t="e">
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="8">
-        <f>H13/H7</f>
-        <v>0.32653061224489793</v>
-      </c>
-      <c r="I27" s="8">
-        <f t="shared" ref="I27:J27" si="16">I13/I7</f>
-        <v>0.37436762225969644</v>
-      </c>
-      <c r="J27" s="8" t="e">
-        <f t="shared" si="16"/>
+      <c r="K27" s="8">
+        <f t="shared" ref="K27:N27" si="29">K16/K15</f>
+        <v>7.6018808777429461E-2</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="29"/>
+        <v>0.12381596752368065</v>
+      </c>
+      <c r="M27" s="8" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="N27" s="8" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -1677,41 +1983,14 @@
       <c r="Y27" s="4"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="8" t="e">
-        <f t="shared" ref="C28:G28" si="17">C17/C16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D28" s="8">
-        <f t="shared" si="17"/>
-        <v>0.13986013986013987</v>
-      </c>
-      <c r="E28" s="8">
-        <f t="shared" si="17"/>
-        <v>0.11082206035379813</v>
-      </c>
-      <c r="F28" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="8">
-        <f>H17/H16</f>
-        <v>9.6230954290296711E-2</v>
-      </c>
-      <c r="I28" s="8">
-        <f t="shared" ref="I28:J28" si="18">I17/I16</f>
-        <v>0.12355212355212356</v>
-      </c>
-      <c r="J28" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -16353,31 +16632,6 @@
       <c r="X613" s="4"/>
       <c r="Y613" s="4"/>
     </row>
-    <row r="614" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C614" s="4"/>
-      <c r="D614" s="4"/>
-      <c r="E614" s="4"/>
-      <c r="F614" s="4"/>
-      <c r="G614" s="4"/>
-      <c r="H614" s="4"/>
-      <c r="I614" s="4"/>
-      <c r="J614" s="4"/>
-      <c r="K614" s="4"/>
-      <c r="L614" s="4"/>
-      <c r="M614" s="4"/>
-      <c r="N614" s="4"/>
-      <c r="O614" s="4"/>
-      <c r="P614" s="4"/>
-      <c r="Q614" s="4"/>
-      <c r="R614" s="4"/>
-      <c r="S614" s="4"/>
-      <c r="T614" s="4"/>
-      <c r="U614" s="4"/>
-      <c r="V614" s="4"/>
-      <c r="W614" s="4"/>
-      <c r="X614" s="4"/>
-      <c r="Y614" s="4"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{6A8A95EA-836C-4848-BFB8-C0629841BB68}"/>
